--- a/biology/Médecine/Hôpital_Grall/Hôpital_Grall.xlsx
+++ b/biology/Médecine/Hôpital_Grall/Hôpital_Grall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Grall</t>
+          <t>Hôpital_Grall</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Grall est un grand hôpital militaire de Saïgon de 1925 à 1978.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Grall</t>
+          <t>Hôpital_Grall</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital précédant l’hôpital Grall était un hôpital militaire français : l'« Hôpital militaire » des Français, fondé en 1862, quand ils ont envahi la Cochinchine. L’installation s'effectue à la fin des années 1870 au 14 de la rue Lagrandière[1], à une autre adresse aujourd'hui. À l’initiative du scientifique Albert Calmette qui a créé l’Institut Pasteur, le premier hors de France en 1891[2].
-Tout le matériel a été apporté de France[2].La structure des bâtiments sur le campus sont toutes des structures en fer préfabriquées par les établissements Eiffel, ramenées et assemblées[3] et posées sur la pierre.
-À partir de 1905, cet établissement médical était sous l’administration de Charles Grall. Le traitement était ouvert à chaque personne : des civils comme des militaires, y compris les peuples autochtones[4]. En 1925, l’hôpital militaire prend le nom officiel d'« Hôpital Grall » en l’honneur du médecin directeur Charles Grall[2]. En avril 1945, lors de la Seconde Guerre mondiale, l’hôpital a été touché par une bombe sur sa face nord, entraînant la destruction du laboratoire[5].
-En 1956, sous le gouvernement de la République du Viêt Nam, le gouvernement français a signé un accord[6] avec le ministère des Affaires étrangères pour poursuivre le fonctionnement de l’hôpital Grall. Hôpital de 560 lits[7].
-Le 3 novembre 1966, l’hôpital est touché par les canons des Vietcongs[8]. Fin avril 1975, dans l’assaut final sur Saïgon, l'hôpital Grall a été submergé par le nombre de blessés de la bataille, jusqu'à 222 personnes dans les trois derniers jours seulement[9].
-En 1976, les Français se retirent et l’hôpital Grall est transféré aux autorités de la République socialiste du Viêt Nam. En 1978, il est renommé « Hôpital pour enfants 2 », pour mettre fin à l’ère des hôpitaux généraux et que cet hôpital spécialisé devienne pédiatrique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital précédant l’hôpital Grall était un hôpital militaire français : l'« Hôpital militaire » des Français, fondé en 1862, quand ils ont envahi la Cochinchine. L’installation s'effectue à la fin des années 1870 au 14 de la rue Lagrandière, à une autre adresse aujourd'hui. À l’initiative du scientifique Albert Calmette qui a créé l’Institut Pasteur, le premier hors de France en 1891.
+Tout le matériel a été apporté de France.La structure des bâtiments sur le campus sont toutes des structures en fer préfabriquées par les établissements Eiffel, ramenées et assemblées et posées sur la pierre.
+À partir de 1905, cet établissement médical était sous l’administration de Charles Grall. Le traitement était ouvert à chaque personne : des civils comme des militaires, y compris les peuples autochtones. En 1925, l’hôpital militaire prend le nom officiel d'« Hôpital Grall » en l’honneur du médecin directeur Charles Grall. En avril 1945, lors de la Seconde Guerre mondiale, l’hôpital a été touché par une bombe sur sa face nord, entraînant la destruction du laboratoire.
+En 1956, sous le gouvernement de la République du Viêt Nam, le gouvernement français a signé un accord avec le ministère des Affaires étrangères pour poursuivre le fonctionnement de l’hôpital Grall. Hôpital de 560 lits.
+Le 3 novembre 1966, l’hôpital est touché par les canons des Vietcongs. Fin avril 1975, dans l’assaut final sur Saïgon, l'hôpital Grall a été submergé par le nombre de blessés de la bataille, jusqu'à 222 personnes dans les trois derniers jours seulement.
+En 1976, les Français se retirent et l’hôpital Grall est transféré aux autorités de la République socialiste du Viêt Nam. En 1978, il est renommé « Hôpital pour enfants 2 », pour mettre fin à l’ère des hôpitaux généraux et que cet hôpital spécialisé devienne pédiatrique.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Grall</t>
+          <t>Hôpital_Grall</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Différents noms et affectations : Hôpital de la Marine, Hôpital colonial, Hôpital des Forces expéditionnaires françaises d'Extrême-Orient puis Hôpital civil.
 </t>
